--- a/4_Classification/Classified_Studies.xlsx
+++ b/4_Classification/Classified_Studies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/4_Classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261A2CEF-2B7D-F84D-B8AC-CE6EA73DBCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE7017E-CC56-7C4D-BE4F-EE922131D843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="3700" windowWidth="46420" windowHeight="25100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="946">
   <si>
     <t>ID</t>
   </si>
@@ -172,9 +172,6 @@
     <t>DOBSLAW2023111802</t>
   </si>
   <si>
-    <t>JUNG2019110419</t>
-  </si>
-  <si>
     <t>ZHANG2022111419</t>
   </si>
   <si>
@@ -502,9 +499,6 @@
     <t>Felix Dobslaw and Ruiyuan Wan and Yuechan Hao</t>
   </si>
   <si>
-    <t>Pilsu Jung and Sungwon Kang and Jihyun Lee</t>
-  </si>
-  <si>
     <t>Quanjun Zhang and Chunrong Fang and Weisong Sun and Shengcheng Yu and Yutao Xu and Yulei Liu</t>
   </si>
   <si>
@@ -1114,9 +1108,6 @@
     <t>Generic and industrial scale many-criteria regression test selection</t>
   </si>
   <si>
-    <t>Automated code-based test selection for software product line regression testing</t>
-  </si>
-  <si>
     <t>Test case prioritization using partial attention</t>
   </si>
   <si>
@@ -1405,9 +1396,6 @@
     <t>111802</t>
   </si>
   <si>
-    <t>110419</t>
-  </si>
-  <si>
     <t>111419</t>
   </si>
   <si>
@@ -1735,9 +1723,6 @@
     <t>While several test case selection algorithms (heuristic and optimal) and formulations (linear and non-linear) have been proposed, no multi-criteria framework enables Pareto search — the state-of-the-art approach of doing multi-criteria optimization. Therefore, we introduce the highly parallelizable, openly available Many-Criteria Test-Optimization Algorithm (MC-TOA) framework that combines heuristic Pareto search and optimality gap knowledge per criterion. MC-TOA is largely agnostic to the criteria formulations and can incorporate many criteria where existing approaches offer limited scope (single or few objectives/constraints), lack flexibility in the expression and assurance of constraints, or run into problem complexity issues. For two large-scale systems with up to six criteria and thousands of system test cases, MC-TOA not only produces, over the board, superior Pareto fronts in terms of HVI score compared to the state-of-the-art many-objective heuristic baseline, it also does that within minutes of runtime for worst-case executions, i.e., assuming that a regression affects the entire test-suite. MC-TOA depends on convex solvers. We find that the evaluated open-source solvers are slower but suffice for smaller systems, while being less robust for larger systems. Linear formulations execute faster and obtain near-optimal results, which led to faster and better overall convergence of MC-TOA compared to integer formulations. Editor’s note: Open Science material was validated by the Journal of Systems and Software Open Science Board.</t>
   </si>
   <si>
-    <t>Regression testing for software product lines (SPLs) is challenging and can be expensive because it must ensure that all the products of a product family are correct whenever changes are made. SPL regression testing can be made efficient through a test case selection method that selects only the test cases relevant to the changes. Some approaches for SPL test case selection have been proposed but either they were not efficient by requiring intervention from human experts or they cannot be used if requirements specifications, architecture and/or traceabilities for test cases are not available or partially eroded. To address these limitations, we propose an automated method of source code-based regression test selection for SPLs. Our method reduces the repetition of the selection procedure and minimizes the in-depth analysis effort for source code and test cases based on the commonality and variability of a product family. Evaluation results of our method using six product lines show that our method reduces the overall time to perform regression testing by 14.8% ∼ 49.1% on average compared to an approach of repetitively applying Ekstazi, which is the state-of-the-art regression test selection method for a single product, to each product of a product family.</t>
-  </si>
-  <si>
     <t>Test case prioritization (TCP) aims to reorder the regression test suite with a goal of increasing the fault detection rate. Various TCP techniques have been proposed based on different prioritization strategies. Among them, the greedy-based techniques are the most widely-used TCP techniques. However, existing greedy-based techniques usually reorder all candidate test cases in prioritization iterations, resulting in both efficiency and effectiveness problems. In this paper, we propose a generic partial attention mechanism, which adopts the previous priority values (i.e., the number of additionally-covered code units) to avoid considering all candidate test cases. Incorporating the mechanism with the additional-greedy strategy, we implement a novel coverage-based TCP technique based on partition ordering (OCP). OCP first groups the candidate test cases into different partitions and updates the partitions on the descending order. We conduct a comprehensive experiment on 19 versions of Java programs and 30 versions of C programs to compare the effectiveness and efficiency of OCP with six state-of-the-art TCP techniques: total-greedy, additional-greedy, lexicographical-greedy, unify-greedy, art-based, and search-based. The experimental results show that OCP achieves a better fault detection rate than the state-of-the-arts. Moreover, the time costs of OCP are found to achieve 85%–99% improvement than most state-of-the-arts.</t>
   </si>
   <si>
@@ -2065,9 +2050,6 @@
     <t>Software testing, Regression testing, Test case selection, Industrial-scale optimization</t>
   </si>
   <si>
-    <t>Product lines testing, Regression test selection, Software maintenance, Software evolution</t>
-  </si>
-  <si>
     <t>Software testing, Regression testing, Test case prioritization, Greedy algorithm</t>
   </si>
   <si>
@@ -2380,9 +2362,6 @@
     <t>https://doi.org/10.1016/j.jss.2023.111802</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.jss.2019.110419</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1016/j.jss.2022.111419</t>
   </si>
   <si>
@@ -2536,9 +2515,6 @@
     <t>https://www.sciencedirect.com/science/article/pii/S0164121223001978</t>
   </si>
   <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S0164121219301931</t>
-  </si>
-  <si>
     <t>https://www.sciencedirect.com/science/article/pii/S0164121222001285</t>
   </si>
   <si>
@@ -2870,9 +2846,6 @@
   </si>
   <si>
     <t>generic and industrial scale many-criteria regression test selection while several test case selection algorithms (heuristic and optimal) and formulations (linear and non-linear) have been proposed, no multi-criteria framework enables pareto search — the state-of-the-art approach of doing multi-criteria optimization. therefore, we introduce the highly parallelizable, openly available many-criteria test-optimization algorithm (mc-toa) framework that combines heuristic pareto search and optimality gap knowledge per criterion. mc-toa is largely agnostic to the criteria formulations and can incorporate many criteria where existing approaches offer limited scope (single or few objectives/constraints), lack flexibility in the expression and assurance of constraints, or run into problem complexity issues. for two large-scale systems with up to six criteria and thousands of system test cases, mc-toa not only produces, over the board, superior pareto fronts in terms of hvi score compared to the state-of-the-art many-objective heuristic baseline, it also does that within minutes of runtime for worst-case executions, i.e., assuming that a regression affects the entire test-suite. mc-toa depends on convex solvers. we find that the evaluated open-source solvers are slower but suffice for smaller systems, while being less robust for larger systems. linear formulations execute faster and obtain near-optimal results, which led to faster and better overall convergence of mc-toa compared to integer formulations. editor’s note: open science material was validated by the journal of systems and software open science board.</t>
-  </si>
-  <si>
-    <t>automated code-based test selection for software product line regression testing regression testing for software product lines (spls) is challenging and can be expensive because it must ensure that all the products of a product family are correct whenever changes are made. spl regression testing can be made efficient through a test case selection method that selects only the test cases relevant to the changes. some approaches for spl test case selection have been proposed but either they were not efficient by requiring intervention from human experts or they cannot be used if requirements specifications, architecture and/or traceabilities for test cases are not available or partially eroded. to address these limitations, we propose an automated method of source code-based regression test selection for spls. our method reduces the repetition of the selection procedure and minimizes the in-depth analysis effort for source code and test cases based on the commonality and variability of a product family. evaluation results of our method using six product lines show that our method reduces the overall time to perform regression testing by 14.8% ∼ 49.1% on average compared to an approach of repetitively applying ekstazi, which is the state-of-the-art regression test selection method for a single product, to each product of a product family.</t>
   </si>
   <si>
     <t>test case prioritization using partial attention test case prioritization (tcp) aims to reorder the regression test suite with a goal of increasing the fault detection rate. various tcp techniques have been proposed based on different prioritization strategies. among them, the greedy-based techniques are the most widely-used tcp techniques. however, existing greedy-based techniques usually reorder all candidate test cases in prioritization iterations, resulting in both efficiency and effectiveness problems. in this paper, we propose a generic partial attention mechanism, which adopts the previous priority values (i.e., the number of additionally-covered code units) to avoid considering all candidate test cases. incorporating the mechanism with the additional-greedy strategy, we implement a novel coverage-based tcp technique based on partition ordering (ocp). ocp first groups the candidate test cases into different partitions and updates the partitions on the descending order. we conduct a comprehensive experiment on 19 versions of java programs and 30 versions of c programs to compare the effectiveness and efficiency of ocp with six state-of-the-art tcp techniques: total-greedy, additional-greedy, lexicographical-greedy, unify-greedy, art-based, and search-based. the experimental results show that ocp achieves a better fault detection rate than the state-of-the-arts. moreover, the time costs of ocp are found to achieve 85%–99% improvement than most state-of-the-arts.</t>
@@ -3265,10 +3238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN111"/>
+  <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection sqref="A1:AN111"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110:XFD110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3400,40 +3373,40 @@
         <v>9068003</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F2">
         <v>2019</v>
       </c>
       <c r="I2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K2" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="L2" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="N2" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM2" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="AN2" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
@@ -3441,43 +3414,43 @@
         <v>9022761</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F3">
         <v>2019</v>
       </c>
       <c r="I3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K3" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="L3" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="M3" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="N3" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="AM3" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="AN3" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
@@ -3485,40 +3458,40 @@
         <v>7561371</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F4">
         <v>2016</v>
       </c>
       <c r="I4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J4" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K4" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="L4" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="N4" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM4" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="AN4" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.2">
@@ -3526,40 +3499,40 @@
         <v>6884931</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F5">
         <v>2014</v>
       </c>
       <c r="I5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J5" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="K5" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L5" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="N5" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM5" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="AN5" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.2">
@@ -3567,40 +3540,40 @@
         <v>10048797</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F6">
         <v>2023</v>
       </c>
       <c r="I6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J6" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K6" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="L6" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="N6" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="AM6" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="AN6" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.2">
@@ -3608,16 +3581,16 @@
         <v>8377903</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F7">
         <v>2018</v>
@@ -3626,28 +3599,28 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="K7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="L7" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="M7" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="N7" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM7" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="AN7" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.2">
@@ -3655,40 +3628,40 @@
         <v>7045344</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F8">
         <v>2014</v>
       </c>
       <c r="I8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J8" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K8" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="L8" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="N8" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM8" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="AN8" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
@@ -3696,40 +3669,40 @@
         <v>9198020</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F9">
         <v>2020</v>
       </c>
       <c r="I9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J9" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="K9" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="L9" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="N9" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM9" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="AN9" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.2">
@@ -3737,40 +3710,40 @@
         <v>8776936</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F10">
         <v>2019</v>
       </c>
       <c r="I10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J10" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="K10" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L10" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="N10" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="AM10" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="AN10" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.2">
@@ -3778,43 +3751,43 @@
         <v>10197719</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F11">
         <v>2023</v>
       </c>
       <c r="I11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J11" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K11" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="L11" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="M11" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="N11" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM11" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="AN11" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
@@ -3822,40 +3795,40 @@
         <v>8261011</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F12">
         <v>2017</v>
       </c>
       <c r="I12" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J12" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K12" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="L12" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="N12" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM12" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="AN12" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.2">
@@ -3863,40 +3836,40 @@
         <v>9160217</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F13">
         <v>2020</v>
       </c>
       <c r="I13" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J13" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="K13" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L13" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="N13" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM13" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="AN13" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.2">
@@ -3904,40 +3877,40 @@
         <v>8229925</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F14">
         <v>2017</v>
       </c>
       <c r="I14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J14" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K14" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="L14" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="N14" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM14" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="AN14" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.2">
@@ -3945,40 +3918,40 @@
         <v>7207103</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F15">
         <v>2015</v>
       </c>
       <c r="I15" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J15" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="K15" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L15" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="N15" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM15" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="AN15" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
@@ -3986,40 +3959,40 @@
         <v>7515934</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F16">
         <v>2016</v>
       </c>
       <c r="I16" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J16" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="K16" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L16" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="N16" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM16" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="AN16" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
@@ -4027,40 +4000,40 @@
         <v>6888744</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F17">
         <v>2014</v>
       </c>
       <c r="I17" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J17" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="K17" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="L17" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="N17" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM17" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="AN17" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.2">
@@ -4068,40 +4041,40 @@
         <v>7019794</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F18">
         <v>2014</v>
       </c>
       <c r="I18" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J18" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="K18" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="L18" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="N18" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="AM18" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="AN18" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
@@ -4109,40 +4082,40 @@
         <v>7155012</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F19">
         <v>2015</v>
       </c>
       <c r="I19" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K19" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="L19" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="N19" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="AM19" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="AN19" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
@@ -4150,40 +4123,40 @@
         <v>7380585</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F20">
         <v>2015</v>
       </c>
       <c r="I20" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="J20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="K20" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="L20" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="N20" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM20" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="AN20" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -4191,40 +4164,40 @@
         <v>6949377</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F21">
         <v>2014</v>
       </c>
       <c r="I21" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J21" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="K21" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="L21" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="N21" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="AM21" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="AN21" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.2">
@@ -4232,40 +4205,40 @@
         <v>7975319</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E22" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F22">
         <v>2016</v>
       </c>
       <c r="I22" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J22" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="K22" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L22" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="N22" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="AM22" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="AN22" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
@@ -4273,40 +4246,40 @@
         <v>7809434</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F23">
         <v>2016</v>
       </c>
       <c r="I23" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J23" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="K23" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="L23" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="N23" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM23" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="AN23" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
@@ -4314,40 +4287,40 @@
         <v>7475187</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F24">
         <v>2015</v>
       </c>
       <c r="I24" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J24" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="K24" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="L24" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="N24" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM24" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="AN24" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
@@ -4355,40 +4328,40 @@
         <v>7148505</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F25">
         <v>2015</v>
       </c>
       <c r="I25" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J25" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="K25" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="L25" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="N25" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM25" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="AN25" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
@@ -4396,40 +4369,40 @@
         <v>6571611</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F26">
         <v>2013</v>
       </c>
       <c r="I26" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="J26" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="K26" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="L26" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="N26" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="AM26" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="AN26" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
@@ -4437,40 +4410,40 @@
         <v>10301343</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E27" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F27">
         <v>2023</v>
       </c>
       <c r="I27" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J27" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K27" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="L27" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="N27" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM27" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="AN27" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
@@ -4478,43 +4451,43 @@
         <v>8991616</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F28">
         <v>2019</v>
       </c>
       <c r="I28" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J28" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="K28" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="L28" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="M28" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="N28" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM28" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="AN28" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.2">
@@ -4522,40 +4495,40 @@
         <v>9440156</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F29">
         <v>2021</v>
       </c>
       <c r="I29" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="J29" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="K29" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="L29" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="N29" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="AM29" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="AN29" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.2">
@@ -4563,40 +4536,40 @@
         <v>7557497</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F30">
         <v>2016</v>
       </c>
       <c r="I30" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J30" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="K30" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="L30" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="N30" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM30" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="AN30" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.2">
@@ -4604,40 +4577,40 @@
         <v>8281742</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E31" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F31">
         <v>2017</v>
       </c>
       <c r="I31" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J31" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K31" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="L31" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="N31" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM31" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="AN31" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.2">
@@ -4645,40 +4618,40 @@
         <v>8117002</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F32">
         <v>2017</v>
       </c>
       <c r="I32" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J32" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="K32" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="L32" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="N32" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="AM32" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="AN32" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.2">
@@ -4686,40 +4659,40 @@
         <v>10499739</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E33" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F33">
         <v>2024</v>
       </c>
       <c r="I33" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J33" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K33" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="L33" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="N33" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="AM33" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="AN33" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.2">
@@ -4727,40 +4700,40 @@
         <v>10199547</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E34" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F34">
         <v>2023</v>
       </c>
       <c r="I34" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J34" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="K34" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="L34" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="N34" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM34" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="AN34" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.2">
@@ -4768,16 +4741,16 @@
         <v>7273631</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E35" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F35">
         <v>2015</v>
@@ -4786,28 +4759,28 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J35" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K35" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="L35" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="M35" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="N35" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM35" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="AN35" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.2">
@@ -4815,40 +4788,40 @@
         <v>7885851</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F36">
         <v>2016</v>
       </c>
       <c r="I36" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J36" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="K36" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="L36" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="N36" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM36" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="AN36" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.2">
@@ -4856,40 +4829,40 @@
         <v>10507913</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F37">
         <v>2024</v>
       </c>
       <c r="I37" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J37" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="K37" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="L37" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="N37" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="AM37" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="AN37" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.2">
@@ -4897,40 +4870,40 @@
         <v>8305939</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F38">
         <v>2017</v>
       </c>
       <c r="I38" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="J38" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="K38" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="L38" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="N38" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM38" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="AN38" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.2">
@@ -4938,40 +4911,40 @@
         <v>9440161</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F39">
         <v>2021</v>
       </c>
       <c r="I39" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J39" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="K39" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="L39" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="N39" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="AM39" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="AN39" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.2">
@@ -4979,40 +4952,40 @@
         <v>9796413</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E40" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F40">
         <v>2022</v>
       </c>
       <c r="I40" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J40" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="K40" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="L40" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="N40" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM40" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="AN40" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.2">
@@ -5020,40 +4993,40 @@
         <v>6844270</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E41" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F41">
         <v>2013</v>
       </c>
       <c r="I41" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J41" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="K41" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="L41" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="N41" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM41" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="AN41" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.2">
@@ -5061,40 +5034,40 @@
         <v>7375627</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E42" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F42">
         <v>2015</v>
       </c>
       <c r="I42" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J42" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="K42" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="L42" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="N42" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="AM42" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="AN42" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.2">
@@ -5102,37 +5075,37 @@
         <v>8452804</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E43" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F43">
         <v>2018</v>
       </c>
       <c r="I43" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J43" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="K43" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="N43" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM43" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="AN43" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
@@ -5140,40 +5113,40 @@
         <v>10932075</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E44" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F44">
         <v>2024</v>
       </c>
       <c r="I44" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J44" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="K44" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="L44" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="N44" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM44" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="AN44" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.2">
@@ -5181,16 +5154,16 @@
         <v>7273420</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E45" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F45">
         <v>2015</v>
@@ -5199,28 +5172,28 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="J45" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="K45" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="L45" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="M45" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="N45" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM45" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="AN45" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.2">
@@ -5228,43 +5201,43 @@
         <v>10298744</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D46" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E46" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F46">
         <v>2023</v>
       </c>
       <c r="I46" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J46" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="K46" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="L46" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="M46" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="N46" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="AM46" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="AN46" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.2">
@@ -5272,43 +5245,43 @@
         <v>9787970</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D47" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E47" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F47">
         <v>2022</v>
       </c>
       <c r="I47" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J47" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="K47" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="L47" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="M47" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="N47" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="AM47" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="AN47" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.2">
@@ -5316,40 +5289,40 @@
         <v>8855691</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D48" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E48" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F48">
         <v>2019</v>
       </c>
       <c r="I48" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="J48" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="K48" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="L48" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="N48" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="AM48" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="AN48" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.2">
@@ -5357,16 +5330,16 @@
         <v>8029584</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D49" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E49" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F49">
         <v>2017</v>
@@ -5375,28 +5348,28 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J49" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="K49" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="L49" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="M49" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="N49" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM49" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="AN49" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.2">
@@ -5404,40 +5377,40 @@
         <v>7838169</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E50" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F50">
         <v>2016</v>
       </c>
       <c r="I50" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="J50" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="K50" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="L50" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="N50" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM50" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="AN50" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.2">
@@ -5445,43 +5418,43 @@
         <v>6569743</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E51" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F51">
         <v>2013</v>
       </c>
       <c r="I51" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="J51" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="K51" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="L51" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="M51" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="N51" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="AM51" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="AN51" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.2">
@@ -5489,40 +5462,40 @@
         <v>7783254</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D52" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E52" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F52">
         <v>2016</v>
       </c>
       <c r="I52" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="J52" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K52" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="L52" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="N52" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="AM52" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="AN52" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.2">
@@ -5530,40 +5503,40 @@
         <v>8854718</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D53" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E53" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F53">
         <v>2019</v>
       </c>
       <c r="I53" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J53" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="K53" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="L53" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="N53" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM53" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="AN53" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.2">
@@ -5571,37 +5544,37 @@
         <v>8536351</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D54" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E54" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F54">
         <v>2018</v>
       </c>
       <c r="I54" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="J54" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="K54" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="N54" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM54" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="AN54" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.2">
@@ -5609,40 +5582,40 @@
         <v>7272924</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E55" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F55">
         <v>2015</v>
       </c>
       <c r="I55" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J55" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="K55" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="L55" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="N55" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="AM55" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="AN55" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.2">
@@ -5650,40 +5623,40 @@
         <v>9741963</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E56" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F56">
         <v>2021</v>
       </c>
       <c r="I56" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J56" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="K56" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="L56" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="N56" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM56" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="AN56" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.2">
@@ -5691,43 +5664,43 @@
         <v>10675922</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D57" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E57" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F57">
         <v>2024</v>
       </c>
       <c r="I57" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J57" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="K57" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="L57" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="M57" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="N57" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM57" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="AN57" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.2">
@@ -5735,43 +5708,43 @@
         <v>10229439</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D58" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E58" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F58">
         <v>2023</v>
       </c>
       <c r="I58" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J58" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="K58" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="L58" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="M58" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="N58" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM58" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="AN58" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.2">
@@ -5779,40 +5752,40 @@
         <v>8625203</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D59" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E59" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F59">
         <v>2018</v>
       </c>
       <c r="I59" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J59" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="K59" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="L59" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="N59" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="AM59" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="AN59" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.2">
@@ -5820,43 +5793,43 @@
         <v>6649891</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D60" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E60" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F60">
         <v>2013</v>
       </c>
       <c r="I60" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J60" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="K60" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="L60" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="M60" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="N60" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM60" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="AN60" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.2">
@@ -5864,40 +5837,40 @@
         <v>10911525</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D61" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E61" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F61">
         <v>2024</v>
       </c>
       <c r="I61" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J61" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="K61" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="L61" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="N61" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM61" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="AN61" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.2">
@@ -5905,43 +5878,43 @@
         <v>10196878</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D62" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E62" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F62">
         <v>2023</v>
       </c>
       <c r="I62" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="J62" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="K62" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="L62" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="M62" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="N62" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM62" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="AN62" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.2">
@@ -5949,43 +5922,43 @@
         <v>10366665</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D63" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E63" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F63">
         <v>2023</v>
       </c>
       <c r="I63" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J63" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="K63" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="L63" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="M63" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="N63" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM63" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="AN63" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.2">
@@ -5993,40 +5966,40 @@
         <v>7589817</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D64" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E64" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F64">
         <v>2016</v>
       </c>
       <c r="I64" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J64" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="K64" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="L64" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="N64" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="AM64" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="AN64" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.2">
@@ -6034,40 +6007,40 @@
         <v>7381799</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D65" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E65" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F65">
         <v>2015</v>
       </c>
       <c r="I65" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="J65" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="K65" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="L65" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="N65" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="AM65" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="AN65" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.2">
@@ -6075,40 +6048,40 @@
         <v>9103716</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D66" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E66" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F66">
         <v>2020</v>
       </c>
       <c r="I66" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="J66" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="K66" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="L66" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="N66" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="AM66" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="AN66" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.2">
@@ -6116,40 +6089,40 @@
         <v>10621714</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D67" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E67" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F67">
         <v>2024</v>
       </c>
       <c r="I67" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="J67" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K67" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="L67" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="N67" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="AM67" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="AN67" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.2">
@@ -6157,43 +6130,43 @@
         <v>10216597</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D68" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E68" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F68">
         <v>2022</v>
       </c>
       <c r="I68" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="J68" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="K68" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L68" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="M68" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="N68" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM68" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="AN68" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.2">
@@ -6201,40 +6174,40 @@
         <v>7943143</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D69" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E69" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F69">
         <v>2017</v>
       </c>
       <c r="I69" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J69" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="K69" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="L69" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="N69" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="AM69" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="AN69" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.2">
@@ -6242,40 +6215,40 @@
         <v>9142966</v>
       </c>
       <c r="B70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D70" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E70" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F70">
         <v>2020</v>
       </c>
       <c r="I70" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J70" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="K70" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="L70" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="N70" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM70" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="AN70" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.2">
@@ -6283,43 +6256,43 @@
         <v>8530033</v>
       </c>
       <c r="B71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D71" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E71" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F71">
         <v>2018</v>
       </c>
       <c r="I71" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J71" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="K71" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="L71" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="M71" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="N71" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="AM71" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="AN71" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.2">
@@ -6327,43 +6300,43 @@
         <v>10298714</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D72" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E72" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F72">
         <v>2023</v>
       </c>
       <c r="I72" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J72" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="K72" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="L72" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="M72" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="N72" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="AM72" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="AN72" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.2">
@@ -6371,40 +6344,40 @@
         <v>8300829</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D73" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E73" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F73">
         <v>2017</v>
       </c>
       <c r="I73" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J73" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="K73" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="L73" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="N73" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM73" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="AN73" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.2">
@@ -6412,43 +6385,43 @@
         <v>7819324</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D74" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E74" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F74">
         <v>2016</v>
       </c>
       <c r="I74" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="J74" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="K74" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="L74" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="M74" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="N74" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM74" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="AN74" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.2">
@@ -6456,43 +6429,43 @@
         <v>10062444</v>
       </c>
       <c r="B75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D75" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E75" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F75">
         <v>2022</v>
       </c>
       <c r="I75" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="J75" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K75" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="L75" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="M75" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="N75" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM75" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="AN75" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.2">
@@ -6500,43 +6473,43 @@
         <v>9825820</v>
       </c>
       <c r="B76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D76" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E76" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F76">
         <v>2022</v>
       </c>
       <c r="I76" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J76" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K76" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="L76" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="M76" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="N76" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="AM76" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="AN76" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.2">
@@ -6544,40 +6517,40 @@
         <v>7272927</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E77" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F77">
         <v>2015</v>
       </c>
       <c r="I77" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J77" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="K77" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="L77" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="N77" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="AM77" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="AN77" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.2">
@@ -6585,40 +6558,40 @@
         <v>8539203</v>
       </c>
       <c r="B78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D78" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E78" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F78">
         <v>2018</v>
       </c>
       <c r="I78" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J78" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="K78" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="L78" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="N78" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM78" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="AN78" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.2">
@@ -6626,40 +6599,40 @@
         <v>6928903</v>
       </c>
       <c r="B79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D79" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E79" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F79">
         <v>2014</v>
       </c>
       <c r="I79" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J79" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="K79" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="L79" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="N79" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM79" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="AN79" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.2">
@@ -6667,40 +6640,40 @@
         <v>6595798</v>
       </c>
       <c r="B80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D80" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E80" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F80">
         <v>2013</v>
       </c>
       <c r="I80" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="J80" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="K80" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="L80" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="N80" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM80" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="AN80" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="81" spans="1:40" x14ac:dyDescent="0.2">
@@ -6708,16 +6681,16 @@
         <v>7091286</v>
       </c>
       <c r="B81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D81" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E81" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F81">
         <v>2014</v>
@@ -6726,28 +6699,28 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J81" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="K81" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="L81" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="M81" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="N81" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM81" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="AN81" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.2">
@@ -6755,43 +6728,43 @@
         <v>10336260</v>
       </c>
       <c r="B82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D82" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E82" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F82">
         <v>2023</v>
       </c>
       <c r="I82" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J82" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="K82" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="L82" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="M82" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="N82" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM82" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="AN82" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="83" spans="1:40" x14ac:dyDescent="0.2">
@@ -6799,40 +6772,40 @@
         <v>10304799</v>
       </c>
       <c r="B83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D83" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E83" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F83">
         <v>2023</v>
       </c>
       <c r="I83" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J83" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="K83" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="L83" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="N83" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM83" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="AN83" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="84" spans="1:40" x14ac:dyDescent="0.2">
@@ -6840,40 +6813,40 @@
         <v>10011478</v>
       </c>
       <c r="B84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D84" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E84" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F84">
         <v>2022</v>
       </c>
       <c r="I84" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J84" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K84" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="L84" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="N84" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="AM84" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="AN84" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="85" spans="1:40" x14ac:dyDescent="0.2">
@@ -6881,40 +6854,40 @@
         <v>9260075</v>
       </c>
       <c r="B85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C85" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D85" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E85" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F85">
         <v>2020</v>
       </c>
       <c r="I85" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J85" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="K85" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="L85" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="N85" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM85" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="AN85" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="86" spans="1:40" x14ac:dyDescent="0.2">
@@ -6922,43 +6895,43 @@
         <v>8914670</v>
       </c>
       <c r="B86" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D86" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E86" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F86">
         <v>2019</v>
       </c>
       <c r="I86" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J86" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="K86" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="L86" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="M86" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="N86" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM86" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="AN86" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.2">
@@ -6966,43 +6939,43 @@
         <v>10877022</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C87" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D87" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E87" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F87">
         <v>2024</v>
       </c>
       <c r="I87" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J87" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K87" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="L87" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="M87" t="s">
+        <v>795</v>
+      </c>
+      <c r="N87" t="s">
         <v>802</v>
       </c>
-      <c r="N87" t="s">
-        <v>809</v>
-      </c>
       <c r="AM87" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="AN87" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="88" spans="1:40" x14ac:dyDescent="0.2">
@@ -7010,40 +6983,40 @@
         <v>7507977</v>
       </c>
       <c r="B88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C88" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D88" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E88" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F88">
         <v>2016</v>
       </c>
       <c r="I88" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J88" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K88" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="L88" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="N88" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="AM88" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="AN88" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.2">
@@ -7051,40 +7024,40 @@
         <v>8305938</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C89" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D89" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E89" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F89">
         <v>2017</v>
       </c>
       <c r="I89" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J89" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="K89" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="L89" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="N89" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM89" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="AN89" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="90" spans="1:40" x14ac:dyDescent="0.2">
@@ -7092,37 +7065,37 @@
         <v>7100474</v>
       </c>
       <c r="B90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C90" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E90" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F90">
         <v>2015</v>
       </c>
       <c r="I90" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J90" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="K90" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="N90" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="AM90" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="AN90" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.2">
@@ -7130,43 +7103,43 @@
         <v>8453107</v>
       </c>
       <c r="B91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D91" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E91" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F91">
         <v>2018</v>
       </c>
       <c r="I91" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J91" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="K91" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="L91" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="M91" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="N91" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM91" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="AN91" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.2">
@@ -7174,43 +7147,43 @@
         <v>9464569</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C92" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D92" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E92" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F92">
         <v>2021</v>
       </c>
       <c r="I92" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J92" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="K92" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="L92" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="M92" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="N92" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM92" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="AN92" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="93" spans="1:40" x14ac:dyDescent="0.2">
@@ -7218,40 +7191,40 @@
         <v>9616824</v>
       </c>
       <c r="B93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C93" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D93" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E93" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F93">
         <v>2021</v>
       </c>
       <c r="I93" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J93" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="K93" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="L93" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="N93" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="AM93" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="AN93" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="94" spans="1:40" x14ac:dyDescent="0.2">
@@ -7259,40 +7232,40 @@
         <v>9155903</v>
       </c>
       <c r="B94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C94" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D94" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E94" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F94">
         <v>2020</v>
       </c>
       <c r="I94" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J94" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="K94" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="L94" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="N94" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM94" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="AN94" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="95" spans="1:40" x14ac:dyDescent="0.2">
@@ -7300,40 +7273,40 @@
         <v>10493937</v>
       </c>
       <c r="B95" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D95" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E95" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F95">
         <v>2024</v>
       </c>
       <c r="I95" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J95" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="K95" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="L95" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="N95" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="AM95" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="AN95" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="96" spans="1:40" x14ac:dyDescent="0.2">
@@ -7341,40 +7314,40 @@
         <v>7828927</v>
       </c>
       <c r="B96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D96" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E96" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F96">
         <v>2016</v>
       </c>
       <c r="I96" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J96" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="K96" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="L96" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="N96" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="AM96" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="AN96" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="97" spans="1:40" x14ac:dyDescent="0.2">
@@ -7382,40 +7355,40 @@
         <v>10660677</v>
       </c>
       <c r="B97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E97" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F97">
         <v>2024</v>
       </c>
       <c r="I97" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J97" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="K97" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="L97" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="N97" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM97" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="AN97" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="98" spans="1:40" x14ac:dyDescent="0.2">
@@ -7423,16 +7396,16 @@
         <v>8754416</v>
       </c>
       <c r="B98" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D98" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E98" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F98">
         <v>2019</v>
@@ -7441,28 +7414,28 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="J98" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="K98" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="L98" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="M98" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="N98" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="AM98" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="AN98" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="99" spans="1:40" x14ac:dyDescent="0.2">
@@ -7470,37 +7443,37 @@
         <v>7582788</v>
       </c>
       <c r="B99" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C99" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D99" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E99" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F99">
         <v>2016</v>
       </c>
       <c r="I99" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J99" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K99" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="N99" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="AM99" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="AN99" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="100" spans="1:40" x14ac:dyDescent="0.2">
@@ -7508,28 +7481,28 @@
         <v>40</v>
       </c>
       <c r="B100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D100" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E100" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F100">
         <v>2017</v>
       </c>
       <c r="I100" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J100" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="K100" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="L100" t="s">
         <v>40</v>
@@ -7538,28 +7511,28 @@
         <v>9781450344869</v>
       </c>
       <c r="Q100" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="R100" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="T100">
         <v>7</v>
       </c>
       <c r="U100" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="V100" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="AM100" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="AN100" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="101" spans="1:40" x14ac:dyDescent="0.2">
@@ -7567,13 +7540,13 @@
         <v>41</v>
       </c>
       <c r="B101" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C101" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E101" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F101">
         <v>2021</v>
@@ -7582,34 +7555,34 @@
         <v>33</v>
       </c>
       <c r="H101" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I101" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="J101" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="K101" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="M101" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="O101" t="s">
+        <v>815</v>
+      </c>
+      <c r="S101" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="S101" s="2" t="s">
-        <v>829</v>
-      </c>
       <c r="AM101" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="AN101" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="102" spans="1:40" x14ac:dyDescent="0.2">
@@ -7617,13 +7590,13 @@
         <v>42</v>
       </c>
       <c r="B102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E102" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F102">
         <v>2019</v>
@@ -7632,31 +7605,31 @@
         <v>153</v>
       </c>
       <c r="I102" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="J102" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="K102" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="M102" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="O102" t="s">
+        <v>816</v>
+      </c>
+      <c r="S102" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="S102" s="2" t="s">
-        <v>830</v>
-      </c>
       <c r="AM102" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="AN102" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="103" spans="1:40" x14ac:dyDescent="0.2">
@@ -7664,13 +7637,13 @@
         <v>43</v>
       </c>
       <c r="B103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E103" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F103">
         <v>2018</v>
@@ -7679,31 +7652,31 @@
         <v>135</v>
       </c>
       <c r="I103" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J103" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="K103" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="M103" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="O103" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="AM103" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="AN103" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="104" spans="1:40" x14ac:dyDescent="0.2">
@@ -7711,13 +7684,13 @@
         <v>44</v>
       </c>
       <c r="B104" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E104" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F104">
         <v>2022</v>
@@ -7726,34 +7699,34 @@
         <v>34</v>
       </c>
       <c r="H104" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I104" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J104" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="K104" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="M104" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="O104" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="AM104" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="AN104" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="105" spans="1:40" x14ac:dyDescent="0.2">
@@ -7761,13 +7734,13 @@
         <v>45</v>
       </c>
       <c r="B105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E105" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F105">
         <v>2020</v>
@@ -7776,31 +7749,31 @@
         <v>163</v>
       </c>
       <c r="I105" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="J105" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="K105" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="M105" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="O105" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="AM105" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="AN105" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="106" spans="1:40" x14ac:dyDescent="0.2">
@@ -7808,13 +7781,13 @@
         <v>46</v>
       </c>
       <c r="B106" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E106" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F106">
         <v>2025</v>
@@ -7823,31 +7796,31 @@
         <v>160</v>
       </c>
       <c r="I106" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J106" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="K106" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="M106" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="O106" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="AM106" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="AN106" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="107" spans="1:40" x14ac:dyDescent="0.2">
@@ -7855,13 +7828,13 @@
         <v>47</v>
       </c>
       <c r="B107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E107" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F107">
         <v>2020</v>
@@ -7870,31 +7843,31 @@
         <v>169</v>
       </c>
       <c r="I107" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J107" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="K107" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="M107" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="O107" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="AM107" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="AN107" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="108" spans="1:40" x14ac:dyDescent="0.2">
@@ -7902,13 +7875,13 @@
         <v>48</v>
       </c>
       <c r="B108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E108" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F108">
         <v>2022</v>
@@ -7917,34 +7890,34 @@
         <v>299</v>
       </c>
       <c r="H108" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="I108" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J108" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K108" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="M108" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="O108" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="AM108" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="AN108" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="109" spans="1:40" x14ac:dyDescent="0.2">
@@ -7952,13 +7925,13 @@
         <v>49</v>
       </c>
       <c r="B109" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E109" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F109">
         <v>2023</v>
@@ -7967,31 +7940,31 @@
         <v>205</v>
       </c>
       <c r="I109" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="J109" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="K109" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="M109" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="O109" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="AM109" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="AN109" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="110" spans="1:40" x14ac:dyDescent="0.2">
@@ -7999,93 +7972,46 @@
         <v>50</v>
       </c>
       <c r="B110" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E110" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F110">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="G110">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="I110" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J110" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="K110" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="M110" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="O110" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="AM110" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="AN110" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="111" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>51</v>
-      </c>
-      <c r="B111" t="s">
-        <v>54</v>
-      </c>
-      <c r="C111" t="s">
-        <v>161</v>
-      </c>
-      <c r="E111" t="s">
-        <v>365</v>
-      </c>
-      <c r="F111">
-        <v>2022</v>
-      </c>
-      <c r="G111">
-        <v>192</v>
-      </c>
-      <c r="I111" t="s">
-        <v>462</v>
-      </c>
-      <c r="J111" t="s">
-        <v>572</v>
-      </c>
-      <c r="K111" t="s">
-        <v>682</v>
-      </c>
-      <c r="L111" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="M111" t="s">
-        <v>806</v>
-      </c>
-      <c r="O111" t="s">
-        <v>823</v>
-      </c>
-      <c r="S111" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="AM111" t="s">
-        <v>951</v>
-      </c>
-      <c r="AN111" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
   </sheetData>
@@ -8109,10 +8035,8 @@
     <hyperlink ref="S108" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="L109" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="S109" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="L110" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="S110" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="L111" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="S111" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L110" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="S110" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4_Classification/Classified_Studies.xlsx
+++ b/4_Classification/Classified_Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/4_Classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE7017E-CC56-7C4D-BE4F-EE922131D843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE2C2C2-73EC-5E49-945C-58F8A05BF7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9940" yWindow="660" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3240,8 +3240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:XFD110"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AN20" sqref="AN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4156,7 +4156,7 @@
         <v>852</v>
       </c>
       <c r="AN20" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">

--- a/4_Classification/Classified_Studies.xlsx
+++ b/4_Classification/Classified_Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/4_Classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE2C2C2-73EC-5E49-945C-58F8A05BF7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C091BB7E-5185-EB40-8316-BE78D6ACE8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9940" yWindow="660" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3240,8 +3240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AN20" sqref="AN20"/>
+    <sheetView tabSelected="1" topLeftCell="AG72" workbookViewId="0">
+      <selection activeCell="AN97" sqref="AN97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4733,7 +4733,7 @@
         <v>866</v>
       </c>
       <c r="AN34" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.2">
@@ -7388,7 +7388,7 @@
         <v>929</v>
       </c>
       <c r="AN97" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="98" spans="1:40" x14ac:dyDescent="0.2">

--- a/4_Classification/Classified_Studies.xlsx
+++ b/4_Classification/Classified_Studies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/4_Classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C091BB7E-5185-EB40-8316-BE78D6ACE8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE2C2C2-73EC-5E49-945C-58F8A05BF7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9940" yWindow="660" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3240,8 +3240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG72" workbookViewId="0">
-      <selection activeCell="AN97" sqref="AN97"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AN20" sqref="AN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4733,7 +4733,7 @@
         <v>866</v>
       </c>
       <c r="AN34" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.2">
@@ -7388,7 +7388,7 @@
         <v>929</v>
       </c>
       <c r="AN97" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="98" spans="1:40" x14ac:dyDescent="0.2">
@@ -8040,4 +8040,231 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B6889C2593FACB4192549183B8B19287" ma:contentTypeVersion="11" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8f919e2780f892880bff7efb43d3db1d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab92c565-5003-4ac3-93a3-a3ce8796a3c0" xmlns:ns3="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1ca4d89da73e1329ebe7ff2e4ed471c6" ns2:_="" ns3:_="">
+    <xsd:import namespace="ab92c565-5003-4ac3-93a3-a3ce8796a3c0"/>
+    <xsd:import namespace="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ab92c565-5003-4ac3-93a3-a3ce8796a3c0" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="75195dc1-fe89-472b-8717-1a0640488213" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{9d5b2749-c0c4-4483-901e-60ca1fd7f0c8}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab92c565-5003-4ac3-93a3-a3ce8796a3c0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA9B750E-32A4-4B1C-8C32-0B964EAA798D}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB5BF9A8-31B9-47BB-B2C0-4B65DE275DC5}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F67ACDF3-52F9-4F2F-9CDF-3164D8FC7704}"/>
 </file>